--- a/test/prods.xlsx
+++ b/test/prods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Название</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Цена конкурента 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>https://3metra.com/catalog/nasosnye-stantsii/nasosnaya-stantsiya-optima-tps60-mini-8400/</t>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +456,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,9 +496,8 @@
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,80 +507,55 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1"/>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="L2" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="L3" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
